--- a/03.crawler/03.eBay/file/input.xlsx
+++ b/03.crawler/03.eBay/file/input.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14140"/>
+    <workbookView windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -60,15 +63,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -480,27 +484,19 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -759,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,14 +769,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1337,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="17.5" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1346,6 +1342,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B3" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
